--- a/cubi/modules/contact/resource/sampledata/excel2007/SampleData.xlsx
+++ b/cubi/modules/contact/resource/sampledata/excel2007/SampleData.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>    Openbiz Collaboration Contact Data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+  <si>
+    <t>Openbiz Collaboration Contact Data</t>
   </si>
   <si>
     <t>First Name</t>
@@ -40,6 +40,9 @@
     <t>Position</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>CTO</t>
   </si>
   <si>
+    <t>jixian@openbiz.me</t>
+  </si>
+  <si>
     <t>+86 10 64955182</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>nancy@openbiz.me</t>
   </si>
   <si>
     <t>+159 0110 2096</t>
@@ -245,14 +254,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
@@ -338,48 +347,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.7725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.4862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4274509803922"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.3294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="10.4862745098039"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.121568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.6274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.2745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.9450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="10.6274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="17.0509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.6392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.556862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="10.6274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="10.6274509803922"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="1" s="2">
-      <c r="A1" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="2" s="4">
       <c r="A2" s="3" t="s">
@@ -439,95 +449,106 @@
       <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="21.6" outlineLevel="0" r="3" s="5">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>100101</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="N3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="5" t="n">
         <v>315824246</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>32</v>
+      <c r="R3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="21.6" outlineLevel="0" r="4" s="5">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="5" t="n">
         <v>100101</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="http://www.openbiz.cn" ref="N3" r:id="rId1"/>
+    <hyperlink display="jixian@openbiz.me" ref="G3" r:id="rId1"/>
+    <hyperlink display="http://www.openbiz.cn" ref="O3" r:id="rId2"/>
+    <hyperlink display="nancy@openbiz.me" ref="G4" r:id="rId3"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -551,12 +572,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6274509803922"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -576,12 +597,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6274509803922"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
